--- a/Documents/GSD Program Spec.xlsx
+++ b/Documents/GSD Program Spec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="825" windowWidth="12750" windowHeight="7095" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="825" windowWidth="12750" windowHeight="7095" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Template Update History" sheetId="26" r:id="rId1"/>
@@ -36,12 +36,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Deployment Note'!$A$10:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="313">
   <si>
     <t>Updated On</t>
   </si>
@@ -632,12 +632,6 @@
   </si>
   <si>
     <t>DEV(HK)</t>
-  </si>
-  <si>
-    <t>tstdev04</t>
-  </si>
-  <si>
-    <t>hkgqas04</t>
   </si>
   <si>
     <t>Table List</t>
@@ -993,13 +987,22 @@
   <si>
     <t>QMN - Quotation for Martin</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkgsql01.hk.crystal.com (10.3.1.50)</t>
+  </si>
+  <si>
+    <t>hkgqas04.hk.crystal.com (10.3.1.52)</t>
+  </si>
+  <si>
+    <t>tstdev04(10.3.1.53)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,21 +1394,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1418,6 +1406,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1427,13 +1430,10 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1560,7 +1560,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1648,7 +1648,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1685,19 +1688,19 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1714,25 +1717,25 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1772,17 +1775,25 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3038,29 +3049,29 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{260C19AA-0AA1-416D-A4EF-C008EB0AFC05}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{43DAB071-8C7A-4A94-9C78-44DF000C389A}" srcOrd="1" destOrd="0" parTransId="{39FDF09E-EFBE-4218-9927-6230338761EC}" sibTransId="{777CCF6A-67A3-4F0C-A491-64E88BD7F669}"/>
+    <dgm:cxn modelId="{DC79AF1A-9A99-401E-9808-44F18000987C}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{069CBA25-C0DD-4B30-B288-B772A187FFE8}" srcOrd="3" destOrd="0" parTransId="{2C7E94A5-9E8F-45C0-B0E7-D80A4EFCA72B}" sibTransId="{3637017D-B577-4332-9CEB-E7B050DFCAE4}"/>
+    <dgm:cxn modelId="{4B1D734D-B1DB-4A37-A505-37FB81CBE986}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{5E7E9EC1-1314-496F-B23A-BD6B0B5D67C7}" srcOrd="0" destOrd="0" parTransId="{58A7CC20-04A8-4897-8CBE-57EB8FF5CBE7}" sibTransId="{3406DA9F-5D89-4BC2-8407-7E8F4802A822}"/>
+    <dgm:cxn modelId="{FEB666EA-2952-4E40-9316-66ACFAD91C87}" type="presOf" srcId="{39FDF09E-EFBE-4218-9927-6230338761EC}" destId="{607C0DF8-F8B4-4405-A463-7A26DB26B633}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0D62457A-1F52-45D5-9ACE-D3DD8453BBCE}" type="presOf" srcId="{A5535A36-EFD1-49B4-8234-3672FAC374D2}" destId="{58E058EA-D771-48F4-B72E-77C4660081A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6FC10B7F-2D61-4886-B9C1-FBFAF1435204}" type="presOf" srcId="{069CBA25-C0DD-4B30-B288-B772A187FFE8}" destId="{9CF1A6AD-B57D-4279-8D94-42CEF1342701}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B38578C5-9153-4ABF-A6FB-B5339F39FCD5}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{1F4C441D-2B17-44FB-9CE8-8E8C3FF6DD25}" srcOrd="2" destOrd="0" parTransId="{A12A9DE5-0A6E-47F3-B713-328E1C74CC90}" sibTransId="{820DC971-D45E-4288-A921-160C690C180C}"/>
+    <dgm:cxn modelId="{10EFD50B-54FF-4666-A0CB-30A8704621FE}" srcId="{DBD84442-2090-4BA1-A123-164F6720614A}" destId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" srcOrd="0" destOrd="0" parTransId="{58A236BF-4768-48B4-B04C-022F6E4311DE}" sibTransId="{57060B70-08A7-4FE2-B80C-E4A40E2E80B3}"/>
+    <dgm:cxn modelId="{63DB5A7E-01EF-4B0E-9D37-40910F2F3445}" type="presOf" srcId="{43DAB071-8C7A-4A94-9C78-44DF000C389A}" destId="{25D236DE-389C-43C4-91DF-136402D14E0E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C1E16787-F8E2-4F7D-9BE0-369B20223FA9}" type="presOf" srcId="{39FDF09E-EFBE-4218-9927-6230338761EC}" destId="{79DB2665-36DB-4243-95D6-46CD182C28C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{63DB5A7E-01EF-4B0E-9D37-40910F2F3445}" type="presOf" srcId="{43DAB071-8C7A-4A94-9C78-44DF000C389A}" destId="{25D236DE-389C-43C4-91DF-136402D14E0E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{FEB666EA-2952-4E40-9316-66ACFAD91C87}" type="presOf" srcId="{39FDF09E-EFBE-4218-9927-6230338761EC}" destId="{607C0DF8-F8B4-4405-A463-7A26DB26B633}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{39325E5A-F151-45FA-A15C-42F8442B0186}" type="presOf" srcId="{F32CC717-4C6B-43A5-A6F2-D85D66E93995}" destId="{3093CAF9-4257-4220-BA3A-410D06121D5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6FC10B7F-2D61-4886-B9C1-FBFAF1435204}" type="presOf" srcId="{069CBA25-C0DD-4B30-B288-B772A187FFE8}" destId="{9CF1A6AD-B57D-4279-8D94-42CEF1342701}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{10EFD50B-54FF-4666-A0CB-30A8704621FE}" srcId="{DBD84442-2090-4BA1-A123-164F6720614A}" destId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" srcOrd="0" destOrd="0" parTransId="{58A236BF-4768-48B4-B04C-022F6E4311DE}" sibTransId="{57060B70-08A7-4FE2-B80C-E4A40E2E80B3}"/>
-    <dgm:cxn modelId="{260C19AA-0AA1-416D-A4EF-C008EB0AFC05}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{43DAB071-8C7A-4A94-9C78-44DF000C389A}" srcOrd="1" destOrd="0" parTransId="{39FDF09E-EFBE-4218-9927-6230338761EC}" sibTransId="{777CCF6A-67A3-4F0C-A491-64E88BD7F669}"/>
-    <dgm:cxn modelId="{AEB3FFB9-9356-4D56-97A2-8AFBDA2EE2BE}" type="presOf" srcId="{58A7CC20-04A8-4897-8CBE-57EB8FF5CBE7}" destId="{87AB1A28-1B8D-4F29-B18D-84221EEE10A7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4B1D734D-B1DB-4A37-A505-37FB81CBE986}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{5E7E9EC1-1314-496F-B23A-BD6B0B5D67C7}" srcOrd="0" destOrd="0" parTransId="{58A7CC20-04A8-4897-8CBE-57EB8FF5CBE7}" sibTransId="{3406DA9F-5D89-4BC2-8407-7E8F4802A822}"/>
+    <dgm:cxn modelId="{1C19C011-0EA2-4B68-AC27-FA534B70AD9E}" type="presOf" srcId="{2C7E94A5-9E8F-45C0-B0E7-D80A4EFCA72B}" destId="{D473C439-A985-4686-AACA-E796BA0208C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0DD592F3-6E55-4471-9BB1-5A42FC419DCA}" type="presOf" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{B8AC99CC-2D65-4978-A269-AD1D8DFDE4CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{83B2A4C5-725A-437A-A980-9AA96C7C5F7D}" type="presOf" srcId="{F32CC717-4C6B-43A5-A6F2-D85D66E93995}" destId="{F6DEB087-5A09-4FBF-86FC-CEF8776EB124}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1C19C011-0EA2-4B68-AC27-FA534B70AD9E}" type="presOf" srcId="{2C7E94A5-9E8F-45C0-B0E7-D80A4EFCA72B}" destId="{D473C439-A985-4686-AACA-E796BA0208C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{DBDD78D5-AF1C-4814-80EF-DE277FECE173}" type="presOf" srcId="{2C7E94A5-9E8F-45C0-B0E7-D80A4EFCA72B}" destId="{E1C9EA7B-BA8D-4484-86FE-FA20974D31B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0D62457A-1F52-45D5-9ACE-D3DD8453BBCE}" type="presOf" srcId="{A5535A36-EFD1-49B4-8234-3672FAC374D2}" destId="{58E058EA-D771-48F4-B72E-77C4660081A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{DC79AF1A-9A99-401E-9808-44F18000987C}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{069CBA25-C0DD-4B30-B288-B772A187FFE8}" srcOrd="3" destOrd="0" parTransId="{2C7E94A5-9E8F-45C0-B0E7-D80A4EFCA72B}" sibTransId="{3637017D-B577-4332-9CEB-E7B050DFCAE4}"/>
-    <dgm:cxn modelId="{383AE772-01F0-46C2-88B3-543993533CFA}" type="presOf" srcId="{5E7E9EC1-1314-496F-B23A-BD6B0B5D67C7}" destId="{766206B6-3CF0-4DE1-9A6F-C5F97E3E683A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1EFDAD76-6578-4D71-8078-8618C4934357}" type="presOf" srcId="{A12A9DE5-0A6E-47F3-B713-328E1C74CC90}" destId="{465EC6C2-37B1-4220-B31A-6862ECAA7764}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4311616C-7843-4E45-924A-B6DFCDB01F6F}" type="presOf" srcId="{58A7CC20-04A8-4897-8CBE-57EB8FF5CBE7}" destId="{557FC224-A588-4353-BAF4-FC8F5B7E1C05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9C46023F-8ACD-4EAE-A294-C0A6D33F4FAA}" type="presOf" srcId="{A12A9DE5-0A6E-47F3-B713-328E1C74CC90}" destId="{20BE5421-0A2D-4032-8118-16E67A2AA4F6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{93B4BB70-6B43-45AE-9F4E-1B2858C13E23}" type="presOf" srcId="{DBD84442-2090-4BA1-A123-164F6720614A}" destId="{68638049-C866-460A-92A9-EBF7D8C0EEC3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BBCC43BB-18CB-490B-90E9-C5BC86A31F8E}" type="presOf" srcId="{1F4C441D-2B17-44FB-9CE8-8E8C3FF6DD25}" destId="{E3AD0B85-9103-46D9-AC09-78CBFCA18E5B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9C46023F-8ACD-4EAE-A294-C0A6D33F4FAA}" type="presOf" srcId="{A12A9DE5-0A6E-47F3-B713-328E1C74CC90}" destId="{20BE5421-0A2D-4032-8118-16E67A2AA4F6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B38578C5-9153-4ABF-A6FB-B5339F39FCD5}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{1F4C441D-2B17-44FB-9CE8-8E8C3FF6DD25}" srcOrd="2" destOrd="0" parTransId="{A12A9DE5-0A6E-47F3-B713-328E1C74CC90}" sibTransId="{820DC971-D45E-4288-A921-160C690C180C}"/>
+    <dgm:cxn modelId="{83B2A4C5-725A-437A-A980-9AA96C7C5F7D}" type="presOf" srcId="{F32CC717-4C6B-43A5-A6F2-D85D66E93995}" destId="{F6DEB087-5A09-4FBF-86FC-CEF8776EB124}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1EFDAD76-6578-4D71-8078-8618C4934357}" type="presOf" srcId="{A12A9DE5-0A6E-47F3-B713-328E1C74CC90}" destId="{465EC6C2-37B1-4220-B31A-6862ECAA7764}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{383AE772-01F0-46C2-88B3-543993533CFA}" type="presOf" srcId="{5E7E9EC1-1314-496F-B23A-BD6B0B5D67C7}" destId="{766206B6-3CF0-4DE1-9A6F-C5F97E3E683A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4311616C-7843-4E45-924A-B6DFCDB01F6F}" type="presOf" srcId="{58A7CC20-04A8-4897-8CBE-57EB8FF5CBE7}" destId="{557FC224-A588-4353-BAF4-FC8F5B7E1C05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AEB3FFB9-9356-4D56-97A2-8AFBDA2EE2BE}" type="presOf" srcId="{58A7CC20-04A8-4897-8CBE-57EB8FF5CBE7}" destId="{87AB1A28-1B8D-4F29-B18D-84221EEE10A7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{09F2A48A-B9D8-4835-B950-6C365F4FAE7F}" srcId="{6E4679D8-AB89-4B73-AD44-E00F788E5CBC}" destId="{A5535A36-EFD1-49B4-8234-3672FAC374D2}" srcOrd="4" destOrd="0" parTransId="{F32CC717-4C6B-43A5-A6F2-D85D66E93995}" sibTransId="{B1C621EC-2EDD-4CD1-B38A-7B96E8EC6306}"/>
+    <dgm:cxn modelId="{39325E5A-F151-45FA-A15C-42F8442B0186}" type="presOf" srcId="{F32CC717-4C6B-43A5-A6F2-D85D66E93995}" destId="{3093CAF9-4257-4220-BA3A-410D06121D5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DBDD78D5-AF1C-4814-80EF-DE277FECE173}" type="presOf" srcId="{2C7E94A5-9E8F-45C0-B0E7-D80A4EFCA72B}" destId="{E1C9EA7B-BA8D-4484-86FE-FA20974D31B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{71A604FF-6F46-4507-9215-D4B626243EBA}" type="presParOf" srcId="{68638049-C866-460A-92A9-EBF7D8C0EEC3}" destId="{42576757-75C3-451C-BE0C-0BD31BC1D4FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{5A87BA10-FABF-429B-AB51-BECD38BB2647}" type="presParOf" srcId="{42576757-75C3-451C-BE0C-0BD31BC1D4FB}" destId="{B8AC99CC-2D65-4978-A269-AD1D8DFDE4CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{85749305-250F-4245-83F6-144544F7F63C}" type="presParOf" srcId="{42576757-75C3-451C-BE0C-0BD31BC1D4FB}" destId="{230D0B3A-8B00-4BB9-9F58-B7FE6FA951D7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3094,14 +3105,14 @@
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
 </file>
 
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram">
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
     <dsp:nvGrpSpPr>
       <dsp:cNvPr id="0" name=""/>
@@ -3183,8 +3194,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1917727" y="1912867"/>
-        <a:ext cx="1109286" cy="498614"/>
+        <a:off x="1932331" y="1927471"/>
+        <a:ext cx="1080078" cy="469406"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{557FC224-A588-4353-BAF4-FC8F5B7E1C05}">
@@ -3261,7 +3272,7 @@
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
-      <dsp:txXfrm rot="17382038">
+      <dsp:txXfrm>
         <a:off x="3290460" y="1252410"/>
         <a:ext cx="91759" cy="91759"/>
       </dsp:txXfrm>
@@ -3341,8 +3352,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3645666" y="48529"/>
-        <a:ext cx="1543505" cy="771752"/>
+        <a:off x="3668270" y="71133"/>
+        <a:ext cx="1498297" cy="726544"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{79DB2665-36DB-4243-95D6-46CD182C28C7}">
@@ -3419,7 +3430,7 @@
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
-      <dsp:txXfrm rot="18362611">
+      <dsp:txXfrm>
         <a:off x="3312201" y="1707394"/>
         <a:ext cx="52969" cy="52969"/>
       </dsp:txXfrm>
@@ -3499,8 +3510,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3650359" y="919706"/>
-        <a:ext cx="1543505" cy="771752"/>
+        <a:off x="3672963" y="942310"/>
+        <a:ext cx="1498297" cy="726544"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{465EC6C2-37B1-4220-B31A-6862ECAA7764}">
@@ -3657,8 +3668,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3644416" y="1776298"/>
-        <a:ext cx="1543505" cy="771752"/>
+        <a:off x="3667020" y="1798902"/>
+        <a:ext cx="1498297" cy="726544"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E1C9EA7B-BA8D-4484-86FE-FA20974D31B1}">
@@ -3735,7 +3746,7 @@
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
-      <dsp:txXfrm rot="3310531">
+      <dsp:txXfrm>
         <a:off x="3308686" y="2578904"/>
         <a:ext cx="54057" cy="54057"/>
       </dsp:txXfrm>
@@ -3815,8 +3826,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3644416" y="2663814"/>
-        <a:ext cx="1543505" cy="771752"/>
+        <a:off x="3667020" y="2686418"/>
+        <a:ext cx="1498297" cy="726544"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F6DEB087-5A09-4FBF-86FC-CEF8776EB124}">
@@ -3893,7 +3904,7 @@
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
-      <dsp:txXfrm rot="4249260">
+      <dsp:txXfrm>
         <a:off x="3288731" y="3002707"/>
         <a:ext cx="93967" cy="93967"/>
       </dsp:txXfrm>
@@ -3973,8 +3984,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3644416" y="3551330"/>
-        <a:ext cx="1543505" cy="771752"/>
+        <a:off x="3667020" y="3573934"/>
+        <a:ext cx="1498297" cy="726544"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5840,9 +5851,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table119" displayName="Table119" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4">
-    <filterColumn colId="0"/>
-  </autoFilter>
+  <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Version" dataDxfId="36"/>
     <tableColumn id="1" name="Updated On"/>
@@ -5855,10 +5864,7 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:F6" totalsRowShown="0">
-  <autoFilter ref="A2:F6">
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A2:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Server Name"/>
@@ -5897,17 +5903,12 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:I10" totalsRowShown="0">
-  <autoFilter ref="A2:I10">
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-  </autoFilter>
+  <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Item No"/>
     <tableColumn id="2" name="Function Item"/>
     <tableColumn id="3" name="Description EN"/>
-    <tableColumn id="4" name="Description CN" dataDxfId="0">
+    <tableColumn id="4" name="Description CN" dataDxfId="16">
       <calculatedColumnFormula>'SO Plan'!B4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Remark"/>
@@ -5957,7 +5958,7 @@
   <autoFilter ref="B7:E8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Version"/>
-    <tableColumn id="2" name="Updated On" dataDxfId="16"/>
+    <tableColumn id="2" name="Updated On" dataDxfId="15"/>
     <tableColumn id="3" name="Updated By"/>
     <tableColumn id="4" name="Description"/>
   </tableColumns>
@@ -5966,20 +5967,20 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table117" displayName="Table117" ref="A2:K4" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table117" displayName="Table117" ref="A2:K4" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:K4"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Function Group" dataDxfId="13"/>
-    <tableColumn id="2" name="Function " dataDxfId="12"/>
-    <tableColumn id="3" name="Test Plan No" dataDxfId="11"/>
-    <tableColumn id="4" name="Test Plan" dataDxfId="10"/>
-    <tableColumn id="5" name="Result" dataDxfId="9" dataCellStyle="Bad"/>
-    <tableColumn id="6" name="Test On " dataDxfId="8"/>
-    <tableColumn id="7" name="Test by " dataDxfId="7"/>
-    <tableColumn id="8" name="Remark" dataDxfId="6"/>
-    <tableColumn id="9" name="Re-Test On" dataDxfId="5"/>
-    <tableColumn id="10" name="Re-Test By" dataDxfId="4"/>
-    <tableColumn id="11" name="Re-Remark" dataDxfId="3"/>
+    <tableColumn id="1" name="Function Group" dataDxfId="12"/>
+    <tableColumn id="2" name="Function " dataDxfId="11"/>
+    <tableColumn id="3" name="Test Plan No" dataDxfId="10"/>
+    <tableColumn id="4" name="Test Plan" dataDxfId="9"/>
+    <tableColumn id="5" name="Result" dataDxfId="8" dataCellStyle="Bad"/>
+    <tableColumn id="6" name="Test On " dataDxfId="7"/>
+    <tableColumn id="7" name="Test by " dataDxfId="6"/>
+    <tableColumn id="8" name="Remark" dataDxfId="5"/>
+    <tableColumn id="9" name="Re-Test On" dataDxfId="4"/>
+    <tableColumn id="10" name="Re-Test By" dataDxfId="3"/>
+    <tableColumn id="11" name="Re-Remark" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6001,16 +6002,13 @@
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table3" displayName="Table3" ref="A2:F4" totalsRowShown="0">
-  <autoFilter ref="A2:F4">
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A2:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Report By"/>
     <tableColumn id="5" name="Category"/>
     <tableColumn id="3" name="Question"/>
-    <tableColumn id="4" name="Answer" dataDxfId="2"/>
+    <tableColumn id="4" name="Answer" dataDxfId="1"/>
     <tableColumn id="6" name="Ref 参考画面"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6031,15 +6029,13 @@
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A2:H6" totalsRowShown="0">
-  <autoFilter ref="A2:H6">
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A2:H6"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Requirement No."/>
     <tableColumn id="2" name="Required On"/>
     <tableColumn id="3" name="Required By"/>
     <tableColumn id="4" name="Required Company"/>
-    <tableColumn id="5" name="Requirement Description" dataDxfId="1"/>
+    <tableColumn id="5" name="Requirement Description" dataDxfId="0"/>
     <tableColumn id="6" name="Enhanced On"/>
     <tableColumn id="7" name="Enhanced By"/>
     <tableColumn id="8" name="Release Folder(VSS/TFS)"/>
@@ -6102,9 +6098,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:J3" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A2:J3">
-    <filterColumn colId="1"/>
-  </autoFilter>
+  <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Issue No." dataDxfId="23"/>
     <tableColumn id="10" name="Function"/>
@@ -6123,9 +6117,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:H3" totalsRowShown="0">
-  <autoFilter ref="A2:H3">
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A2:H3"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Seq No." dataDxfId="19"/>
     <tableColumn id="2" name="Item"/>
@@ -6197,7 +6189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6229,9 +6221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6263,6 +6256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6438,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6446,7 +6440,7 @@
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -6454,7 +6448,7 @@
     <col min="4" max="4" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -6468,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>173</v>
       </c>
@@ -6482,7 +6476,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>175</v>
       </c>
@@ -6496,7 +6490,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>187</v>
       </c>
@@ -6520,7 +6514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6529,19 +6523,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="149.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:3" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6552,11 +6546,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6577,7 +6571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -6586,7 +6580,7 @@
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -6599,12 +6593,12 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:9" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -6621,10 +6615,10 @@
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -6633,14 +6627,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="63" t="str">
+        <v>217</v>
+      </c>
+      <c r="D3" s="58" t="str">
         <f>'SO Plan'!B4</f>
         <v>基于指定的 Sales Org 从SAP 中获取对应的SO 相关信息以供其它系统参考使用</v>
       </c>
@@ -6651,17 +6645,17 @@
         <v>42144</v>
       </c>
       <c r="I3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="63" t="str">
+        <v>205</v>
+      </c>
+      <c r="D4" s="58" t="str">
         <f>SAR!B4</f>
         <v>基于已获取的 SO_Plan 中的资料，进行汇总处理，以供其它系统参考使用</v>
       </c>
@@ -6670,14 +6664,14 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="63" t="str">
+        <v>236</v>
+      </c>
+      <c r="D5" s="58" t="str">
         <f>Customer_Mst!B4</f>
         <v>从SAP 中获取指定表中的 Customer 信息，如名称及代码等</v>
       </c>
@@ -6688,17 +6682,17 @@
         <v>42144</v>
       </c>
       <c r="I5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="63" t="str">
+        <v>226</v>
+      </c>
+      <c r="D6" s="58" t="str">
         <f>SPS_Fabric!B4</f>
         <v>从SAP 中获取指定表中的 Fabric  信息</v>
       </c>
@@ -6709,18 +6703,18 @@
         <v>42144</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="64" t="str">
+      <c r="D7" s="59" t="str">
         <f>SD_Actual!B4</f>
         <v>基于指定的公司列表，从SAP 中获取对应的SO 相关实际销售信息以供其它系统参考使用</v>
       </c>
@@ -6732,18 +6726,18 @@
         <v>42144</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="64" t="str">
+      <c r="D8" s="59" t="str">
         <f>SD_Precost!B4</f>
         <v>基于指定的条件，如日期范围，SO 号等，从SAP 中获取对应的Precost (Quotation)相关信息以供其它系统参考使用</v>
       </c>
@@ -6755,18 +6749,18 @@
         <v>42144</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="64" t="str">
+      <c r="D9" s="59" t="str">
         <f>SD_Ship!B4</f>
         <v>基于指定的条件，如日期范围，Sales Org, SO 号等，从SAP 中获取对应的Ship 相关信息以供其它系统参考使用</v>
       </c>
@@ -6778,18 +6772,18 @@
         <v>42144</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="64" t="str">
+      <c r="D10" s="59" t="str">
         <f>ZQTM_RM!B4</f>
         <v>从SAP 中获取对应的RM Quotation Info 相关信息以供其它系统参考使用</v>
       </c>
@@ -6801,12 +6795,12 @@
         <v>42144</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B14" s="29">
         <v>42262</v>
@@ -6834,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6842,7 +6836,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="74.140625" customWidth="1"/>
@@ -6856,17 +6850,17 @@
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:10" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -6898,7 +6892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6909,7 +6903,7 @@
       <c r="H6" s="8"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6921,12 +6915,12 @@
       <c r="I7" s="8"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6940,12 +6934,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6964,7 +6958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6972,7 +6966,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -6981,33 +6975,33 @@
     <col min="5" max="5" width="131.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:5" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>96</v>
       </c>
@@ -7021,10 +7015,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="29"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>83</v>
       </c>
@@ -7037,32 +7031,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>86</v>
       </c>
@@ -7075,27 +7069,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>87</v>
       </c>
@@ -7108,18 +7102,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3.2</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>90</v>
       </c>
@@ -7132,12 +7126,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>92</v>
       </c>
@@ -7150,12 +7144,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>104</v>
       </c>
@@ -7168,19 +7162,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>6.2</v>
       </c>
       <c r="C30" s="34"/>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>106</v>
       </c>
@@ -7193,28 +7187,28 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
         <v>7.1</v>
       </c>
       <c r="C32" s="34"/>
       <c r="E32" s="34"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <v>7.2</v>
       </c>
       <c r="C33" s="34"/>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
         <v>7.3</v>
       </c>
       <c r="C34" s="34"/>
       <c r="E34" s="34"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>115</v>
       </c>
@@ -7227,17 +7221,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>8.1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8.3000000000000007</v>
       </c>
@@ -7254,7 +7248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7262,7 +7256,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
@@ -7276,12 +7270,12 @@
     <col min="11" max="11" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:11" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>144</v>
       </c>
@@ -7316,7 +7310,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -7329,7 +7323,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="47"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -7355,7 +7349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7363,7 +7357,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -7372,12 +7366,12 @@
     <col min="5" max="5" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:5" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -7406,7 +7400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7414,7 +7408,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -7424,12 +7418,12 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:6" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -7449,11 +7443,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -7473,15 +7467,15 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -7493,12 +7487,12 @@
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -7524,54 +7518,54 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="54">
         <v>42068</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="F6" s="54">
         <v>42093</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7586,116 +7580,116 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="D11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="D13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="D14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="D15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="D16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7708,99 +7702,99 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="D11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="D12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="D13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="D14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7813,7 +7807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7822,14 +7816,14 @@
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="115.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7840,7 +7834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -7855,129 +7849,129 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="62"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="57"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="D7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62" t="s">
-        <v>259</v>
-      </c>
       <c r="D8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="57"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="62"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="D14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="D15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="D16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7990,120 +7984,120 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="D7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="C8" s="62" t="s">
-        <v>259</v>
-      </c>
       <c r="D8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="62"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="D12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="D14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="D15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="D16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8116,149 +8110,149 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" s="57">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" t="s">
         <v>273</v>
       </c>
-      <c r="H8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="C9" s="62">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="C10" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="C11" s="62"/>
+      <c r="C11" s="57"/>
       <c r="D11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="C12" s="62"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="D15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="D17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="D18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="D19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="D20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8271,145 +8265,145 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="62">
+      <c r="C9" s="57">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="C10" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="C11" s="57"/>
+      <c r="D11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="C10" s="62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="C11" s="62"/>
-      <c r="D11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="C12" s="62"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="D15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="D17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="D18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="D19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8422,145 +8416,145 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" t="s">
         <v>283</v>
       </c>
-      <c r="H8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="62">
+      <c r="C9" s="57">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="C10" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="C11" s="62"/>
+      <c r="C11" s="57"/>
       <c r="D11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="C12" s="62"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="D15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="D17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="D18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="D19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8573,126 +8567,126 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:4" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" s="57"/>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" s="57" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="C8" s="62"/>
-      <c r="D8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="C9" s="62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="62"/>
+      <c r="C10" s="57"/>
       <c r="D10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="C11" s="62"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="57"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="D14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="D16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="D17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="D18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8705,16 +8699,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -8722,61 +8716,61 @@
     <col min="4" max="4" width="90.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="57"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="56" t="s">
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="57"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="56" t="s">
+      <c r="D2" s="65"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="58"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="58"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D4" s="64"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
@@ -8791,7 +8785,7 @@
       </c>
       <c r="H7" s="53"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -8805,7 +8799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>2</v>
       </c>
@@ -8819,7 +8813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>3</v>
       </c>
@@ -8833,7 +8827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>4</v>
       </c>
@@ -8848,23 +8842,23 @@
       </c>
       <c r="G11" s="51"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="8"/>
       <c r="C12" s="12"/>
       <c r="D12" s="8"/>
       <c r="G12" s="51"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
@@ -8878,7 +8872,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>1</v>
       </c>
@@ -8892,7 +8886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -8906,7 +8900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>3</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>4</v>
       </c>
@@ -8934,7 +8928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>5</v>
       </c>
@@ -8942,13 +8936,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>6</v>
       </c>
@@ -8962,7 +8956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>7</v>
       </c>
@@ -8976,21 +8970,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="21">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
@@ -9004,7 +8998,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>1</v>
       </c>
@@ -9018,7 +9012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>2</v>
       </c>
@@ -9032,7 +9026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>3</v>
       </c>
@@ -9046,15 +9040,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>17</v>
       </c>
@@ -9068,7 +9062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>1</v>
       </c>
@@ -9082,7 +9076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>2</v>
       </c>
@@ -9096,7 +9090,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>3</v>
       </c>
@@ -9110,7 +9104,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>4</v>
       </c>
@@ -9126,18 +9120,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" location="'Function List'!A1" display="Function List"/>
@@ -9158,7 +9152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -9168,7 +9162,7 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -9182,12 +9176,12 @@
     <col min="10" max="10" width="74.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="50" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
@@ -9219,7 +9213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -9231,7 +9225,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
@@ -9242,7 +9236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -9250,7 +9244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -9258,12 +9252,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -9271,7 +9265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
@@ -9292,7 +9286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -9302,7 +9296,7 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -9314,12 +9308,12 @@
     <col min="8" max="8" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
@@ -9345,13 +9339,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="G3" s="16"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
@@ -9372,7 +9366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9381,7 +9375,7 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
@@ -9390,12 +9384,12 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>179</v>
       </c>
@@ -9403,23 +9397,23 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -9452,16 +9446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
@@ -9470,12 +9464,12 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:6" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9495,7 +9489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -9506,34 +9500,40 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -9557,31 +9557,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:3" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -9589,296 +9589,296 @@
         <v>196</v>
       </c>
       <c r="C5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>202</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>227</v>
       </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
+      <c r="C29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>220</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" t="s">
         <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -9893,7 +9893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O73"/>
   <sheetViews>
@@ -9902,47 +9902,47 @@
       <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="50" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:15" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1">
+    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="5" spans="1:15" s="23" customFormat="1">
+    <row r="5" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:15" s="34" customFormat="1">
+    <row r="6" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="C6" s="36"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1">
+    <row r="8" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="24"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1">
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -9954,331 +9954,331 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1">
+    <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65" t="s">
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66" t="s">
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="65"/>
-      <c r="C50" s="65" t="s">
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="65"/>
-      <c r="C53" s="65" t="s">
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66" t="s">
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="65"/>
-      <c r="C56" s="65" t="s">
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66" t="s">
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="66" t="s">
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="66" t="s">
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66" t="s">
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="60"/>
+      <c r="C63" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="66" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="60"/>
+      <c r="C66" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="65"/>
-      <c r="C63" s="65" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="60"/>
+      <c r="C70" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="65"/>
-      <c r="C66" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="65"/>
-      <c r="C70" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
